--- a/INFO/icegroup SEO.xlsx
+++ b/INFO/icegroup SEO.xlsx
@@ -936,20 +936,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1016,15 +1011,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,6 +1043,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,58 +1370,58 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="196" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1424,340 +1429,340 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="30" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="60" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="63"/>
+      <c r="B19" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="60" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="60" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="66" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:3" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="54"/>
+      <c r="B28" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="30" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="60" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="41" t="s">
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="16"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="44"/>
+      <c r="C46" s="39"/>
     </row>
     <row r="47" spans="1:3" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="60"/>
-      <c r="B47" s="37" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>17</v>
       </c>
     </row>
